--- a/data/trans_dic/P1402-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1402-Edad-trans_dic.xlsx
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001962328231198684</v>
+        <v>0.001960115656066419</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002109950573617148</v>
+        <v>0.002107776547281749</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -746,34 +746,34 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01143985945190231</v>
+        <v>0.01109877246881752</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01642988504473497</v>
+        <v>0.01658134660057513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01078430162879715</v>
+        <v>0.01184267118450748</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.01667773690524219</v>
+        <v>0.01671117520436524</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.01557439945409431</v>
+        <v>0.01763925987775508</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.005110976246280255</v>
+        <v>0.004877784930998917</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01143015032281067</v>
+        <v>0.01182031260250674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.005727932483266029</v>
+        <v>0.005717271047067906</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.00724452875455661</v>
+        <v>0.008546038209431728</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.006060966083998413</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.006705083990508022</v>
+        <v>0.006705083990508021</v>
       </c>
     </row>
     <row r="8">
@@ -835,37 +835,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004330224809441846</v>
+        <v>0.004388709292985364</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002575397378065006</v>
+        <v>0.003321747911797015</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001414120399705975</v>
+        <v>0.001411528818303961</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006489729507580142</v>
+        <v>0.006514394389355189</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003210407426693497</v>
+        <v>0.003151379934756115</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001297706136066649</v>
+        <v>0.0008486017008671868</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.007547734715067381</v>
+        <v>0.006823676630454962</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003096615150554051</v>
+        <v>0.002465848151075576</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.001958093302506218</v>
+        <v>0.001926107117292415</v>
       </c>
     </row>
     <row r="9">
@@ -876,40 +876,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01381026271124363</v>
+        <v>0.01283489218512771</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02385999765661226</v>
+        <v>0.02239332655454388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01302460168805942</v>
+        <v>0.01680130569502461</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04092993329414818</v>
+        <v>0.03576693515209</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01285709210687601</v>
+        <v>0.01324151615977477</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02699151501512729</v>
+        <v>0.02810674454187953</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01857717144072171</v>
+        <v>0.0181237251948737</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.007711428873529151</v>
+        <v>0.006899766938734954</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008962345611103375</v>
+        <v>0.008169188444269258</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02144420285871635</v>
+        <v>0.02128985370446919</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01181040841364319</v>
+        <v>0.01211264639572665</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01852637243646527</v>
+        <v>0.0181075199365908</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         <v>0.0192176114663238</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02216516925234508</v>
+        <v>0.02216516925234507</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01041892814715356</v>
@@ -945,7 +945,7 @@
         <v>0.01139339013465186</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.01785179933352326</v>
+        <v>0.01785179933352327</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01750052582937845</v>
@@ -968,40 +968,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01454446232190186</v>
+        <v>0.01458015880195268</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001502979357594652</v>
+        <v>0.001495453707438402</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01008734255446688</v>
+        <v>0.01034724346613325</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01191243474956391</v>
+        <v>0.01207702855982394</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004381802842741337</v>
+        <v>0.004648047284607494</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01110000615505158</v>
+        <v>0.01121771430697079</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.004385890332874363</v>
+        <v>0.005512616428079016</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01012937135842136</v>
+        <v>0.009713872984593558</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0112424465273514</v>
+        <v>0.01144630852328388</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007181145988290938</v>
+        <v>0.007748193974557879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009499969442446398</v>
+        <v>0.009346761397381579</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01374671595679596</v>
+        <v>0.01327819010902521</v>
       </c>
     </row>
     <row r="12">
@@ -1012,40 +1012,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04117894259605274</v>
+        <v>0.04185410540896255</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01345854053723028</v>
+        <v>0.01424427883404229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03222007640080454</v>
+        <v>0.03288842023590078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03621300480277601</v>
+        <v>0.03645645471378833</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02083709300928052</v>
+        <v>0.02218761573567101</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03067797479439289</v>
+        <v>0.03170471967727468</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02149201601092585</v>
+        <v>0.021572329115853</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02872423968998477</v>
+        <v>0.0285908789002746</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02556517841454186</v>
+        <v>0.02591311909594757</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01881998283286417</v>
+        <v>0.01889619510439835</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02362565070445225</v>
+        <v>0.02367758596287147</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02945875528930346</v>
+        <v>0.02846723623409836</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03506160430132216</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03156135054865811</v>
+        <v>0.0315613505486581</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04236653728230379</v>
@@ -1093,7 +1093,7 @@
         <v>0.04504110693825713</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05014697372396719</v>
+        <v>0.0501469737239672</v>
       </c>
     </row>
     <row r="14">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02854029545913314</v>
+        <v>0.02720425008847458</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02912870885339568</v>
+        <v>0.03016218508607033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03894255490361018</v>
+        <v>0.039758829989936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05259764328120387</v>
+        <v>0.04874809233384027</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02676407162294858</v>
+        <v>0.02504808914165296</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02184218456196771</v>
+        <v>0.02141581404684111</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02270281455475701</v>
+        <v>0.02183388031275067</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02352114070357669</v>
+        <v>0.0231038475342804</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03223216965559433</v>
+        <v>0.0307579824528658</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02946025579124597</v>
+        <v>0.0290032198562572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03365783566143968</v>
+        <v>0.03376144366058133</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04068555724070894</v>
+        <v>0.04023820604267823</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06467742564162125</v>
+        <v>0.06684757144599192</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06293954623826381</v>
+        <v>0.06494808412849226</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07852735095590399</v>
+        <v>0.07538722480386498</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09255901868794052</v>
+        <v>0.09035962860774052</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06288474319475175</v>
+        <v>0.06059243545405715</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05354125255129618</v>
+        <v>0.05464136138759602</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05426742205829965</v>
+        <v>0.05084989021922819</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.043176493205727</v>
+        <v>0.04282008234382046</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05696828790209563</v>
+        <v>0.05628041701022445</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05206770326364518</v>
+        <v>0.0515210346057199</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0590149780154583</v>
+        <v>0.05740222643015797</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06186563044439385</v>
+        <v>0.06188311439985067</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1248889205066006</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0788012433933752</v>
+        <v>0.07880124339337521</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1188726613221717</v>
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08583635657086212</v>
+        <v>0.08630333858435804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08818389900806643</v>
+        <v>0.08803576189682484</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1040688334393048</v>
+        <v>0.1028674205355246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1050509103138905</v>
+        <v>0.1020623391488643</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0917444780407275</v>
+        <v>0.09299758994558698</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08351226436610622</v>
+        <v>0.08755258229899621</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09807815844250135</v>
+        <v>0.0963930179607974</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06311508325333073</v>
+        <v>0.06324412141553559</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09676045039077641</v>
+        <v>0.09614252444825602</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09468880122187998</v>
+        <v>0.09619216159399771</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1057493596946824</v>
+        <v>0.1063339027328898</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08943185728394153</v>
+        <v>0.08982241346934508</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1497034243965991</v>
+        <v>0.1535262982045975</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1547755924518197</v>
+        <v>0.1533554392870378</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.168019984948079</v>
+        <v>0.1649002154682931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1599903861744247</v>
+        <v>0.1536920244080412</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1582386084921028</v>
+        <v>0.1579544693982519</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.14471860982201</v>
+        <v>0.1473770291334491</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1613633491546852</v>
+        <v>0.1568404609746858</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09736148997310995</v>
+        <v>0.09714304693106296</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.141240311676477</v>
+        <v>0.1437895819641544</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1399908984658504</v>
+        <v>0.1399979350969293</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1529343309001775</v>
+        <v>0.151030033627067</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1192989253716346</v>
+        <v>0.1211944950831847</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2291436881956974</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1700843425386664</v>
+        <v>0.1700843425386663</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2102078960719914</v>
@@ -1365,7 +1365,7 @@
         <v>0.2540594605994968</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1946208774392453</v>
+        <v>0.1946208774392454</v>
       </c>
     </row>
     <row r="20">
@@ -1376,40 +1376,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.154787717906008</v>
+        <v>0.1535915330719447</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2542083749769214</v>
+        <v>0.2450080829261125</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2292781230861678</v>
+        <v>0.2359845150241754</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.188607808539117</v>
+        <v>0.1890157150110768</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1857897106660726</v>
+        <v>0.1860156753975055</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.209140334526686</v>
+        <v>0.2066960779095495</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.183413873439475</v>
+        <v>0.1834976717745084</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1424693377624476</v>
+        <v>0.1465300925669041</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1791756147648644</v>
+        <v>0.1828842039811268</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2423484674352353</v>
+        <v>0.2426197177801146</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2203554504192352</v>
+        <v>0.22188094311587</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.173650697513751</v>
+        <v>0.1741277697683004</v>
       </c>
     </row>
     <row r="21">
@@ -1420,40 +1420,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2435281998906951</v>
+        <v>0.2397297337380777</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3615385667037768</v>
+        <v>0.3662076984151815</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3319975634150973</v>
+        <v>0.3355338807276411</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2574099189341871</v>
+        <v>0.2586275258773494</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2707402542718234</v>
+        <v>0.2707233584896138</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3066969181182471</v>
+        <v>0.2979708574020611</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2744337289197601</v>
+        <v>0.2743747686257013</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1966619007596921</v>
+        <v>0.1970906459890139</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2408921981976804</v>
+        <v>0.242351320772186</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3087790605752901</v>
+        <v>0.3156754992955634</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2860486804861075</v>
+        <v>0.2883656987195539</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2178952051515946</v>
+        <v>0.2172032056220352</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3070684482936614</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2911615589646663</v>
+        <v>0.2911615589646664</v>
       </c>
     </row>
     <row r="23">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1527218764144164</v>
+        <v>0.1503215068944746</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2236951903287366</v>
+        <v>0.2286047574277288</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2877521626642727</v>
+        <v>0.2907454344197641</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2572337376807758</v>
+        <v>0.2531236171646842</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1700779606660072</v>
+        <v>0.1719867148274212</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2625350675194188</v>
+        <v>0.2660871024178825</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2346716311044653</v>
+        <v>0.2351324742458105</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.260158183831355</v>
+        <v>0.2574131838776892</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1753996589792851</v>
+        <v>0.1770089239112752</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2657629224032896</v>
+        <v>0.2640500240049027</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2679886269228772</v>
+        <v>0.2670084718478458</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2630374873930886</v>
+        <v>0.2633783318721157</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2557558901036676</v>
+        <v>0.2582868547175865</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3477141465951921</v>
+        <v>0.3440400227730027</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4010772986702092</v>
+        <v>0.4001154330801155</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3381495592636576</v>
+        <v>0.3410350389712288</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2674863739564108</v>
+        <v>0.2709749339858352</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3613835710957767</v>
+        <v>0.3668509873729272</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3328531989417171</v>
+        <v>0.3378374019298598</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3212134278002295</v>
+        <v>0.3182144866214244</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2465526879488083</v>
+        <v>0.2504642078843438</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3393873450874785</v>
+        <v>0.3357705175421866</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3457161600122542</v>
+        <v>0.3436364098825181</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3152007049243951</v>
+        <v>0.3158814528345867</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.08384128023455691</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.07821262707958804</v>
+        <v>0.07821262707958802</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.06230946674902334</v>
@@ -1637,7 +1637,7 @@
         <v>0.08573340175995259</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.08544409361179556</v>
+        <v>0.08544409361179553</v>
       </c>
     </row>
     <row r="26">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06670623868613132</v>
+        <v>0.06592744942144681</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07872848379117263</v>
+        <v>0.07707380203792968</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08335161893581522</v>
+        <v>0.08434513625476105</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07739449854276674</v>
+        <v>0.07762392035832197</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07343076164983572</v>
+        <v>0.07431539782587862</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07109691161738906</v>
+        <v>0.07140266166987179</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0745134140554085</v>
+        <v>0.07478362567588512</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07890582724480741</v>
+        <v>0.07856558171309563</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.08029176399350695</v>
+        <v>0.08016400604683412</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08537780398129409</v>
+        <v>0.08489795656720989</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09722985943549743</v>
+        <v>0.09681875621243795</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.102008394792297</v>
+        <v>0.1028045011550224</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09576642422627944</v>
+        <v>0.09658572317982968</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09389707057033511</v>
+        <v>0.09421769906479904</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0845652904753893</v>
+        <v>0.08486219714060246</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.08754794318881222</v>
+        <v>0.08769236859867235</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0926550157400312</v>
+        <v>0.09308475615842204</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.09189800136500159</v>
+        <v>0.09142978568033808</v>
       </c>
     </row>
     <row r="28">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
@@ -2037,34 +2037,34 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5652</v>
+        <v>5484</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7462</v>
+        <v>7530</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4524</v>
+        <v>4968</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>7175</v>
+        <v>7190</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>5646</v>
+        <v>6394</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4914</v>
+        <v>4690</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>10109</v>
+        <v>10454</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>4670</v>
+        <v>4661</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>5556</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="8">
@@ -2170,37 +2170,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2975</v>
+        <v>3015</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1228</v>
+        <v>1584</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3960</v>
+        <v>3975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1809</v>
+        <v>1776</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1766</v>
+        <v>1155</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9792</v>
+        <v>8853</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3574</v>
+        <v>2846</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1915</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="11">
@@ -2211,40 +2211,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10157</v>
+        <v>9440</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16394</v>
+        <v>15386</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7691</v>
+        <v>9921</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19519</v>
+        <v>17057</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8042</v>
+        <v>8282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16472</v>
+        <v>17152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10469</v>
+        <v>10214</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3864</v>
+        <v>3457</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12198</v>
+        <v>11118</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27820</v>
+        <v>27620</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13630</v>
+        <v>13978</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>18118</v>
+        <v>17709</v>
       </c>
     </row>
     <row r="12">
@@ -2347,40 +2347,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9289</v>
+        <v>9312</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6749</v>
+        <v>6923</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7396</v>
+        <v>7498</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3022</v>
+        <v>3206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7876</v>
+        <v>7960</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2901</v>
+        <v>3646</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6295</v>
+        <v>6037</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14935</v>
+        <v>15205</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9992</v>
+        <v>10781</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12640</v>
+        <v>12436</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17078</v>
+        <v>16496</v>
       </c>
     </row>
     <row r="15">
@@ -2391,40 +2391,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26300</v>
+        <v>26731</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9177</v>
+        <v>9713</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21558</v>
+        <v>22006</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22482</v>
+        <v>22634</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14372</v>
+        <v>15304</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21768</v>
+        <v>22497</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14215</v>
+        <v>14268</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17852</v>
+        <v>17769</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>33961</v>
+        <v>34423</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26187</v>
+        <v>26293</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>31434</v>
+        <v>31503</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>36597</v>
+        <v>35366</v>
       </c>
     </row>
     <row r="16">
@@ -2527,40 +2527,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14817</v>
+        <v>14123</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17903</v>
+        <v>18538</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25159</v>
+        <v>25686</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>36851</v>
+        <v>34154</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13801</v>
+        <v>12916</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13417</v>
+        <v>13155</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14736</v>
+        <v>14172</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>17323</v>
+        <v>17016</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>33353</v>
+        <v>31828</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>36203</v>
+        <v>35641</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>43591</v>
+        <v>43725</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>58470</v>
+        <v>57827</v>
       </c>
     </row>
     <row r="19">
@@ -2571,40 +2571,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33577</v>
+        <v>34704</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38684</v>
+        <v>39918</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>50732</v>
+        <v>48704</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64848</v>
+        <v>63307</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32426</v>
+        <v>31244</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>32888</v>
+        <v>33564</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>35224</v>
+        <v>33005</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31799</v>
+        <v>31537</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>58950</v>
+        <v>58238</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>63985</v>
+        <v>63313</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>76432</v>
+        <v>74343</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>88908</v>
+        <v>88933</v>
       </c>
     </row>
     <row r="20">
@@ -2707,40 +2707,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33194</v>
+        <v>33374</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>37869</v>
+        <v>37805</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>49736</v>
+        <v>49162</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>63909</v>
+        <v>62091</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>37063</v>
+        <v>37570</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>37397</v>
+        <v>39206</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>48730</v>
+        <v>47893</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>38339</v>
+        <v>38418</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>76508</v>
+        <v>76020</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>83064</v>
+        <v>84383</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>103081</v>
+        <v>103651</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>108732</v>
+        <v>109207</v>
       </c>
     </row>
     <row r="23">
@@ -2751,40 +2751,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>57892</v>
+        <v>59370</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>66465</v>
+        <v>65855</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>80300</v>
+        <v>78809</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>97332</v>
+        <v>93500</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>63926</v>
+        <v>63811</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>64805</v>
+        <v>65995</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>80173</v>
+        <v>77926</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>59142</v>
+        <v>59009</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>111678</v>
+        <v>113694</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>122804</v>
+        <v>122810</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>149075</v>
+        <v>147219</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>145044</v>
+        <v>147349</v>
       </c>
     </row>
     <row r="24">
@@ -2887,40 +2887,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>45288</v>
+        <v>44938</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>78750</v>
+        <v>75900</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>76655</v>
+        <v>78897</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>76120</v>
+        <v>76285</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>63714</v>
+        <v>63791</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>74035</v>
+        <v>73170</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>69287</v>
+        <v>69318</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>62568</v>
+        <v>64351</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>113869</v>
+        <v>116226</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>160867</v>
+        <v>161047</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>156913</v>
+        <v>158000</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>146345</v>
+        <v>146747</v>
       </c>
     </row>
     <row r="27">
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>71252</v>
+        <v>70141</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>112000</v>
+        <v>113446</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>110997</v>
+        <v>112179</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>103888</v>
+        <v>104380</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>92846</v>
+        <v>92840</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>108569</v>
+        <v>105480</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>103671</v>
+        <v>103648</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>86367</v>
+        <v>86556</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>153091</v>
+        <v>154018</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>204962</v>
+        <v>209540</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>203693</v>
+        <v>205343</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>183633</v>
+        <v>183050</v>
       </c>
     </row>
     <row r="28">
@@ -3067,40 +3067,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>32054</v>
+        <v>31550</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>55890</v>
+        <v>57117</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>73952</v>
+        <v>74721</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>79793</v>
+        <v>78518</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>56790</v>
+        <v>57428</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>102121</v>
+        <v>103502</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>93908</v>
+        <v>94093</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>120411</v>
+        <v>119140</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>95381</v>
+        <v>96256</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>169777</v>
+        <v>168683</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>176113</v>
+        <v>175469</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>203337</v>
+        <v>203601</v>
       </c>
     </row>
     <row r="31">
@@ -3111,40 +3111,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>53679</v>
+        <v>54210</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>86877</v>
+        <v>85959</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>103076</v>
+        <v>102829</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>104893</v>
+        <v>105788</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>89316</v>
+        <v>90481</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>140571</v>
+        <v>142697</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>133198</v>
+        <v>135192</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>148669</v>
+        <v>147281</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>134073</v>
+        <v>136200</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>216811</v>
+        <v>214500</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>227193</v>
+        <v>225827</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>243661</v>
+        <v>244187</v>
       </c>
     </row>
     <row r="32">
@@ -3247,40 +3247,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>160697</v>
+        <v>160050</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>228588</v>
+        <v>225919</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>267232</v>
+        <v>261615</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>293804</v>
+        <v>297306</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>199109</v>
+        <v>203055</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>275145</v>
+        <v>275961</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>260278</v>
+        <v>263414</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>265265</v>
+        <v>266405</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>377736</v>
+        <v>378505</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>520243</v>
+        <v>522130</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>547519</v>
+        <v>545158</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>582589</v>
+        <v>581662</v>
       </c>
     </row>
     <row r="35">
@@ -3291,40 +3291,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>210098</v>
+        <v>211445</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>292571</v>
+        <v>290927</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>330032</v>
+        <v>328637</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>359566</v>
+        <v>362373</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>258916</v>
+        <v>260389</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>340459</v>
+        <v>343372</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>332822</v>
+        <v>333959</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>315516</v>
+        <v>316623</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>456861</v>
+        <v>454309</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>611249</v>
+        <v>612257</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>642923</v>
+        <v>645905</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>666803</v>
+        <v>663405</v>
       </c>
     </row>
     <row r="36">
